--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>331400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>382200</v>
+      </c>
+      <c r="F8" s="3">
         <v>255500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>209300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>174100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>202700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>134500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>144800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>125600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>126500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>86900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>93100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>79400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>82400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>206100</v>
+      </c>
+      <c r="F9" s="3">
         <v>140300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>124000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>90800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>108500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>67200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>69100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>64400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>61800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>41200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>41700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>36600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>42200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>153300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>176100</v>
+      </c>
+      <c r="F10" s="3">
         <v>115200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>85300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>83300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>94200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>67300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>75700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>61200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>64700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>45700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>51400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>42800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>40200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +1002,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,37 +1052,43 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F15" s="3">
         <v>35100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>14300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>14100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
         <v>6000</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>373800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>508600</v>
+      </c>
+      <c r="F17" s="3">
         <v>335400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>305100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>259600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>227300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>211300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>181600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>160700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>160800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>115700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>114300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>89700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>98100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-126400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-79900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-95800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-85500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-24600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-76800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-36800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-35100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-34300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-28800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-5700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
-        <v>-23200</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I20" s="3">
         <v>14900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>19300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-15100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-20200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-50500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-74500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-94600</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-70900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-12000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-45300</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>-15500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-85600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-88800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-108700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-76100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-17500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-50200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-54400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-20500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-13700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>400</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-600</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-79200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-89300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-85500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-89600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-109300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-9900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-77300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-17700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-50700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-54800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-28200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-19900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-90300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-89700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-109300</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-77300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-17700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-50700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-54800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-28200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-19900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F32" s="3">
         <v>5700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
-        <v>23200</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-14900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-19300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>15100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>20200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-90300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-89700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-109300</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-9900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-77300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-17700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-50700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-54800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-28200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-90300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-89700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-109300</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-9900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-77300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-17700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-50700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-54800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-28200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2138,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>322400</v>
+      </c>
+      <c r="F41" s="3">
         <v>318400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>678900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>794700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1044800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1043500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>337000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2234,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>194800</v>
+      </c>
+      <c r="F43" s="3">
         <v>153500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>121000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>109600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>58600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>111700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>43200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2099,35 +2284,41 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>128100</v>
+      </c>
+      <c r="F44" s="3">
         <v>105100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>76300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>76800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>61000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>68300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>55600</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2143,13 +2334,19 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>8200</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
@@ -2157,21 +2354,21 @@
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>35000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>36700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2187,35 +2384,41 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>749900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>645300</v>
+      </c>
+      <c r="F46" s="3">
         <v>577000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>876200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>981000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1199400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1223500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>472500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2231,35 +2434,41 @@
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E47" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F47" s="3">
         <v>35000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>32600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>18300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>11100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>14300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>10300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2275,35 +2484,41 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>183200</v>
+      </c>
+      <c r="F48" s="3">
         <v>166300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>156300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>133200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>37500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>37400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>33800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2319,35 +2534,41 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1371700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1363000</v>
+      </c>
+      <c r="F49" s="3">
         <v>1382500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>373300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>305400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>103300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>91900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>83900</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,31 +2684,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>5700</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>5300</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,35 +2784,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2336900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2227900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2160800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1438400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1438000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1351400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1367100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>600500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2878,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>381900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>447600</v>
+      </c>
+      <c r="F57" s="3">
         <v>334800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>237900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>199600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>102400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>187100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>80600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2663,37 +2924,43 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F58" s="3">
         <v>18000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>36900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2707,35 +2974,41 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3">
         <v>91800</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>75400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2751,35 +3024,41 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>465200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>468000</v>
+      </c>
+      <c r="F60" s="3">
         <v>353800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>274700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>214500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>194200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>187100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>156000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2795,26 +3074,32 @@
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>274300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F61" s="3">
         <v>82600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>78100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>80200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +3124,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>330500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F62" s="3">
         <v>316900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>46000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>56700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>28800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>47300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>12000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,35 +3324,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1222600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1060300</v>
+      </c>
+      <c r="F66" s="3">
         <v>815400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>399100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>351400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>223000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>234400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>168000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,35 +3594,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>306900</v>
+      </c>
+      <c r="F72" s="3">
         <v>460400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>204300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>244100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>367600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>363900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-348500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,35 +3794,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1114300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1167600</v>
+      </c>
+      <c r="F76" s="3">
         <v>1345400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1039300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1086600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1128400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1132700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>432500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-90300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-89700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-109300</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-9900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-77300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-17700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-50700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-54800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-28200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F83" s="3">
         <v>35100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>14300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>14100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-35600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-27700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-75700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-42600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-23300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-82700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-25000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-294800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-108800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-173300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-19300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-16900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-12600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-27500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-2700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>777300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>82300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-16700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-6300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-360500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-115800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-250100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>706500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-34400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-12700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>364700</v>
+      </c>
+      <c r="E8" s="3">
         <v>331400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>382200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>255500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>209300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>174100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>202700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>134500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>144800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>125600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>126500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>93100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>79400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E9" s="3">
         <v>178100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>206100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>140300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>124000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>90800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>108500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>67200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>69100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>61800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E10" s="3">
         <v>153300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>176100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>115200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>85300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>83300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>67300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>51400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,34 +1025,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,40 +1078,43 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E15" s="3">
         <v>51300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>50100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>35100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>14300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>6000</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>373800</v>
+        <v>504800</v>
       </c>
       <c r="E17" s="3">
+        <v>439200</v>
+      </c>
+      <c r="F17" s="3">
         <v>508600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>335400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>305100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>259600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>227300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>211300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>181600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>160700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>114300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>89700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-42400</v>
+        <v>-140100</v>
       </c>
       <c r="E18" s="3">
+        <v>-107800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-126400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-79900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-95800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-85500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-24600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-34300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-21200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34300</v>
+        <v>-299900</v>
       </c>
       <c r="E20" s="3">
+        <v>31100</v>
+      </c>
+      <c r="F20" s="3">
         <v>37000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5700</v>
       </c>
-      <c r="G20" s="3">
-        <v>7000</v>
-      </c>
       <c r="H20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I20" s="3">
         <v>8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>19300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-388300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-39400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-50500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-74500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-80300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-63000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-70900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-45300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>-15500</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-440000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-76700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-89400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-85600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-88800</v>
-      </c>
       <c r="H23" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-77100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-76100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-50200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-54400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-28000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2500</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-435900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-79200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-89300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-85500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-89600</v>
-      </c>
       <c r="H26" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-77700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-77300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-50700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-54800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-28200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-19900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-82100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-96100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-90300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-89700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-77700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-77300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-50700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-54800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-28200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-19900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34300</v>
+        <v>299900</v>
       </c>
       <c r="E32" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-37000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-19300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-82100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-96100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-90300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-89700</v>
-      </c>
       <c r="H33" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-77700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-77300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-50700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-54800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-28200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-82100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-96100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-90300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-89700</v>
-      </c>
       <c r="H35" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-77700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-77300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-50700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-54800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-28200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>802100</v>
+      </c>
+      <c r="E41" s="3">
         <v>422000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>322400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>318400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>678900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>794700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1044800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1043500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>337000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E43" s="3">
         <v>214500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>194800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>153500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>121000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>109600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>111700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2290,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E44" s="3">
         <v>105300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>76300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>76800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>61000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>68300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55600</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2340,17 +2436,20 @@
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E45" s="3">
         <v>8200</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2360,18 +2459,18 @@
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>35000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>36700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1143200</v>
+      </c>
+      <c r="E46" s="3">
         <v>749900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>645300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>577000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>876200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>981000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1199400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1223500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>472500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2440,38 +2542,41 @@
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E47" s="3">
         <v>22700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>35000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>14300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>214900</v>
+      </c>
+      <c r="E48" s="3">
         <v>186900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>183200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>166300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>156300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>133200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2540,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1348900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1371700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1363000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1382500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>373300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>305400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>103300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>91900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>83900</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,20 +2807,23 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E52" s="3">
         <v>5700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2716,8 +2836,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2735700</v>
+      </c>
+      <c r="E54" s="3">
         <v>2336900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2227900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2160800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1438400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1438000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1351400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1367100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>600500</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>450100</v>
+      </c>
+      <c r="E57" s="3">
         <v>381900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>447600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>334800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>237900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>199600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>102400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>187100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>80600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2930,29 +3061,32 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>18900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>36900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2962,8 +3096,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E59" s="3">
         <v>64300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3">
         <v>91800</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>75400</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>528500</v>
+      </c>
+      <c r="E60" s="3">
         <v>465200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>468000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>353800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>274700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>214500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>194200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>187100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>156000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3080,29 +3220,32 @@
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>589700</v>
+      </c>
+      <c r="E61" s="3">
         <v>274300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>82600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>78100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>80200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>729800</v>
+      </c>
+      <c r="E62" s="3">
         <v>330500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>321200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>316900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>56700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>47300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>12000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2004400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1222600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1060300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>815400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>399100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>351400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>234400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>168000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-145100</v>
+      </c>
+      <c r="E72" s="3">
         <v>240600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>306900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>460400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>204300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>244100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>367600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>363900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-348500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>731300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1114300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1167600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1345400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1039300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1086600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1128400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1132700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>432500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-439600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-82100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-96100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-90300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-89700</v>
-      </c>
       <c r="H81" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-77700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-77300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-50700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-54800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-28200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,49 +4223,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E83" s="3">
         <v>51300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>35100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>14300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,49 +4539,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-96000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-35600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-27700</v>
+        <v>-35900</v>
       </c>
       <c r="H89" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-75700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-42600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-82700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,49 +4615,50 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,49 +4772,52 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-294800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-108800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-173300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,49 +5058,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E100" s="3">
         <v>236000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>777300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>82300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -4865,49 +5111,52 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>7600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>380100</v>
+      </c>
+      <c r="E102" s="3">
         <v>99600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-360500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-115800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-250100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>706500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-12700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>437700</v>
+      </c>
+      <c r="E8" s="3">
         <v>364700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>331400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>382200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>255500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>209300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>202700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>134500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>144800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>125600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>126500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>93100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>79400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E9" s="3">
         <v>205300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>178100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>206100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>140300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>124000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>90800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>108500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>67200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>69100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>64400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>61800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>36600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E10" s="3">
         <v>159400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>153300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>176100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>115200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>85300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>94200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>67300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>61200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,37 +1045,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>1900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>10100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>2200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,43 +1101,46 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
         <v>51800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>50100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>35100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>14300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>6000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>584700</v>
+      </c>
+      <c r="E17" s="3">
         <v>504800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>439200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>508600</v>
       </c>
-      <c r="G17" s="3">
-        <v>335400</v>
-      </c>
       <c r="H17" s="3">
+        <v>368000</v>
+      </c>
+      <c r="I17" s="3">
         <v>305100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>259600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>227300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>211300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>181600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>160700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>114300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>89700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-140100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-107800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-126400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-79900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-112500</v>
+      </c>
+      <c r="I18" s="3">
         <v>-95800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-85500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-24600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-76800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-36800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-35100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-34300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-387100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-299900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>31100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>37000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H20" s="3">
+        <v>21900</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-480100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-388300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-50500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="I21" s="3">
         <v>-80300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-63000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-70900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-45300</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-534100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-440000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-76700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-85600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-94600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-77100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-76100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-54400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-537000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-435900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-79200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-89300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-85500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-90500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-95400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-77700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-77300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-54800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-28200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-544300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-439600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-82100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-96100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-90300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-95400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-77700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-77300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-50700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-54800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-28200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E32" s="3">
         <v>299900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-31100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-37000</v>
       </c>
-      <c r="G32" s="3">
-        <v>5700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-544300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-439600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-82100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-96100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-90300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-95400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-77700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-77300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-54800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-28200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-544300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-439600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-82100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-96100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-90300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-95400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-77700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-77300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-54800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-28200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>756700</v>
+      </c>
+      <c r="E41" s="3">
         <v>802100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>422000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>322400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>318400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>678900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>794700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1044800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1043500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>337000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>190400</v>
+      </c>
+      <c r="E43" s="3">
         <v>211500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>214500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>194800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>153500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>121000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>109600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>111700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>43200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2386,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E44" s="3">
         <v>116000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>105300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>76300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>76800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>61000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>68300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55600</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2439,20 +2535,23 @@
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E45" s="3">
         <v>13600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8200</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2462,18 +2561,18 @@
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>35000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>36700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1143200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>749900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>645300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>577000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>876200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>981000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1199400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1223500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>472500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2545,41 +2647,44 @@
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E47" s="3">
         <v>23500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>22700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>35000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>32600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220100</v>
+      </c>
+      <c r="E48" s="3">
         <v>214900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>186900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>183200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>166300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>156300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>133200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2651,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1334400</v>
+      </c>
+      <c r="E49" s="3">
         <v>1348900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1371700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1363000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1382500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>373300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>305400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>103300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>91900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>83900</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,23 +2927,26 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
         <v>5300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2839,8 +2959,8 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2706100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2735700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2336900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2227900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2160800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1438400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1438000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1351400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1367100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600500</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>459000</v>
+      </c>
+      <c r="E57" s="3">
         <v>450100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>381900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>447600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>334800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>237900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>199600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>102400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>187100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>80600</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,32 +3195,35 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E58" s="3">
         <v>20000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>36900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14900</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3099,8 +3233,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E59" s="3">
         <v>58500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>91800</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>75400</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>542500</v>
+      </c>
+      <c r="E60" s="3">
         <v>528500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>465200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>468000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>353800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>274700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>214500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>194200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>187100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>156000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3223,32 +3363,35 @@
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>599300</v>
+      </c>
+      <c r="E61" s="3">
         <v>589700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>274300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>82600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>78100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>80200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="E62" s="3">
         <v>729800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>330500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>321200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>316900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>56700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2421900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2004400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1222600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1060300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>815400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>399100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>351400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>223000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>234400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>168000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-611100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-145100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>240600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>306900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>460400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>204300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>244100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>367600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>363900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-348500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284200</v>
+      </c>
+      <c r="E76" s="3">
         <v>731300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1114300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1167600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1345400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1039300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1086600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1128400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1132700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>432500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-544300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-439600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-82100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-96100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-90300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-95300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-95400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-77700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-77300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-54800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-28200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,52 +4422,53 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E83" s="3">
         <v>51800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>50100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>35100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>14300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4900</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,52 +4756,55 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E89" s="3">
         <v>43700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-96000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-75700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-82700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,52 +4836,53 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,52 +5002,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-6600</v>
-      </c>
       <c r="G94" s="3">
-        <v>-294800</v>
+        <v>-17300</v>
       </c>
       <c r="H94" s="3">
+        <v>-284100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-108800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-173300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,52 +5304,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>364600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>236000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-27500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>777300</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>82300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,52 +5360,55 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>7600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="E102" s="3">
         <v>380100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>99600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-360500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-115800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-250100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>706500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-12700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>540100</v>
+      </c>
+      <c r="E8" s="3">
         <v>437700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>364700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>331400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>382200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>255500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>209300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>202700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>134500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>144800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>125600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>126500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>86900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>93100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>79400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>82400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E9" s="3">
         <v>228700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>205300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>178100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>206100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>140300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>90800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>108500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>67200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>69100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>64400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>61800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>36600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>249100</v>
+      </c>
+      <c r="E10" s="3">
         <v>209000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>159400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>153300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>176100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>115200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>85300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>45700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>40200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,40 +1064,43 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
-        <v>5600</v>
-      </c>
       <c r="H14" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="I14" s="3">
         <v>10100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,46 +1123,49 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>111500</v>
+      </c>
+      <c r="E15" s="3">
         <v>54000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>50100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>35100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>14300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>6000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E17" s="3">
         <v>584700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>504800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>439200</v>
       </c>
-      <c r="G17" s="3">
-        <v>508600</v>
-      </c>
       <c r="H17" s="3">
+        <v>498000</v>
+      </c>
+      <c r="I17" s="3">
         <v>368000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>305100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>259600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>227300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>211300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>181600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>160700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>114300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>89700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-224900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-147000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-140100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-107800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-126400</v>
-      </c>
       <c r="H18" s="3">
+        <v>-115800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-112500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-95800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-85500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-24600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-76800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-36800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-35100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-34300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2071800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-387100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-299900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>31100</v>
       </c>
-      <c r="G20" s="3">
-        <v>37000</v>
-      </c>
       <c r="H20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I20" s="3">
         <v>21900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>19300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2236600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-480100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-388300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-39400</v>
-      </c>
       <c r="H21" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-55500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-80300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-63000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-70900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-12000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-45300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-15500</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2296700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-534100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-440000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-76700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-89400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-110200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-90600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-94600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-77100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-76100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-50200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-54400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E24" s="3">
         <v>2900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2281000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-537000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-435900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-79200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-89300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-90500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-95400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-77700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-77300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-50700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-54800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-19900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2284600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-544300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-439600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-82100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-96100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-95300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-77700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-50700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-54800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-19900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2071800</v>
+      </c>
+      <c r="E32" s="3">
         <v>387100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>299900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-31100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-37000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-21900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-19300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2284600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-544300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-439600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-82100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-96100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-95300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-77700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-54800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-19900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2284600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-544300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-439600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-82100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-96100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-95300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-77700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-54800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-19900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="E41" s="3">
         <v>756700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>802100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>422000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>322400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>318400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>678900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>794700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1044800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1043500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>337000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,44 +2515,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>209900</v>
+      </c>
+      <c r="E43" s="3">
         <v>190400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>211500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>214500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>194800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>153500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>121000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>58600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>111700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>43200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2482,44 +2574,47 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E44" s="3">
         <v>128100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>116000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>105300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>76300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>76800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>61000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>68300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>55600</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2538,23 +2633,26 @@
       <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E45" s="3">
         <v>45800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2564,18 +2662,18 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>35000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>36700</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1961000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1121000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1143200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>749900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>645300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>577000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>876200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>981000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1199400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1223500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>472500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2650,44 +2751,47 @@
       <c r="T46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E47" s="3">
         <v>24600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>23500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>22700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>31100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>35000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>32600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>11100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2706,44 +2810,47 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E48" s="3">
         <v>220100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>214900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>186900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>183200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>166300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>156300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>133200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2762,44 +2869,47 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1279300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1334400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1348900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1371700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1363000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1382500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>373300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>305400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>103300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>91900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>83900</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,26 +3046,29 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2962,8 +3081,8 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3590900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2706100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2735700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2336900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2227900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2160800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1438400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1438000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1351400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1367100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600500</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3271,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>666100</v>
+      </c>
+      <c r="E57" s="3">
         <v>459000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>450100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>381900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>447600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>334800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>237900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>199600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>102400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>187100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>80600</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3198,35 +3328,38 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E58" s="3">
         <v>21800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>36900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14900</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3236,8 +3369,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3254,44 +3387,47 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E59" s="3">
         <v>61700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>91800</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>75400</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3310,44 +3446,47 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>778700</v>
+      </c>
+      <c r="E60" s="3">
         <v>542500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>528500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>465200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>468000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>353800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>274700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>214500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>194200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>187100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>156000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3366,35 +3505,38 @@
       <c r="T60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800500</v>
+      </c>
+      <c r="E61" s="3">
         <v>599300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>589700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>274300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>100800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>82600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>78100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>80200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3422,44 +3564,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3687700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1116400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>729800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>330500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>321200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>316900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>56700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,44 +3800,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5435500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2421900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2004400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1222600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1060300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>815400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>399100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>351400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>223000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>234400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>168000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,44 +4118,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2779500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-611100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-145100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>240600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>306900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>460400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>204300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>244100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>367600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>363900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-348500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4004,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,44 +4354,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1844600</v>
+      </c>
+      <c r="E76" s="3">
         <v>284200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>731300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1114300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1167600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1345400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1039300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1086600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1128400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1132700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>432500</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2284600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-544300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-439600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-82100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-96100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-116900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-95300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-77700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-54800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-19900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,55 +4620,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E83" s="3">
         <v>54000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>51800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>51300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>50100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>14300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4900</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,55 +4972,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-32400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>43700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-96000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-75700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-42600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-82700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,55 +5056,56 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,55 +5231,58 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-28900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-40400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-284100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-173300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-14800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,55 +5549,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>645400</v>
+      </c>
+      <c r="E100" s="3">
         <v>15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>364600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>236000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>24200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>777300</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>82300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5363,55 +5608,58 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>7600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>816700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>380100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>99600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-360500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-115800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-250100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>706500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>485100</v>
+      </c>
+      <c r="E8" s="3">
         <v>540100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>437700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>364700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>331400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>382200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>255500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>209300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>202700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>134500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>144800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>125600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>126500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>86900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>93100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>79400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>82400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>264200</v>
+      </c>
+      <c r="E9" s="3">
         <v>291000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>228700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>205300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>178100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>206100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>140300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>90800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>108500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>67200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>69100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>64400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>61800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>36600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>220900</v>
+      </c>
+      <c r="E10" s="3">
         <v>249100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>159400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>176100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>115200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>85300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>64700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>45700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>40200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,43 +1084,46 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>54000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-35200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1126,49 +1146,52 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>111500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>35100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>14300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>6000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>603500</v>
+      </c>
+      <c r="E17" s="3">
         <v>765000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>584700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>504800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>439200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>498000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>368000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>305100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>259600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>227300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>211300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>181600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>160700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>115700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>114300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>89700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>98100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-224900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-147000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-140100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-115800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-112500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-95800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-85500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-24600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-76800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-36800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-35100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-15700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>635100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2071800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-387100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-299900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>21900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>570700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2236600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-480100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-388300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-60200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-55500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-80300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-63000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-70900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-45300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-15500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2296700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-534100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-440000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-76700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-110200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-90600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-94600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-77100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-76100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-54400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-28000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2500</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>-100</v>
       </c>
       <c r="J24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>516700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2281000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-537000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-435900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-79200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-110100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-90500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-95400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-77700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-77300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-50700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-28200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-19900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2284600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-544300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-439600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-82100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-116900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-95300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-95400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-77700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-50700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-28200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-19900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-635100</v>
+      </c>
+      <c r="E32" s="3">
         <v>2071800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>387100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>299900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-21900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2284600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-544300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-439600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-82100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-116900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-95300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-95400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-77700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-77300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-50700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-28200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-19900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2284600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-544300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-439600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-82100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-116900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-95300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-95400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-77700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-77300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-50700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-28200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-19900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2486,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1247600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1573400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>756700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>802100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>422000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>322400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>318400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>678900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>794700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1044800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1043500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>337000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,47 +2608,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>283800</v>
+      </c>
+      <c r="E43" s="3">
         <v>209900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>190400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>211500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>214500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>194800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>153500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>121000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>111700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>43200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2577,47 +2670,50 @@
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>173100</v>
+      </c>
+      <c r="E44" s="3">
         <v>145300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>128100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>116000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>105300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>128100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>76300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>61000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>68300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>55600</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2636,26 +2732,29 @@
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E45" s="3">
         <v>32300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8200</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2665,18 +2764,18 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>35000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>36700</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1733400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1961000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1121000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1143200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>749900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>645300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>577000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>876200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>981000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1199400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1223500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>472500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2754,47 +2856,50 @@
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E47" s="3">
         <v>68700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>24600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>23500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>22700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>31100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>35000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>32600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>11100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2813,47 +2918,50 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>257000</v>
+      </c>
+      <c r="E48" s="3">
         <v>268300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>220100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>214900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>186900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>183200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>166300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>156300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>133200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,47 +2980,50 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1266800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1279300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1334400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1348900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1371700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1363000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1382500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>373300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>103300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>91900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>83900</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,29 +3166,32 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E52" s="3">
         <v>13600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3084,8 +3204,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3336300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3590900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2706100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2735700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2336900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2227900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2160800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1438400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1438000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1351400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1367100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600500</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,47 +3402,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>556200</v>
+      </c>
+      <c r="E57" s="3">
         <v>666100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>459000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>450100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>381900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>447600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>334800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>237900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>199600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>102400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>187100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>80600</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3331,38 +3462,41 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E58" s="3">
         <v>26100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14900</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3372,8 +3506,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3390,47 +3524,50 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E59" s="3">
         <v>86500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>61700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>64300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>91800</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>75400</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,47 +3586,50 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>638700</v>
+      </c>
+      <c r="E60" s="3">
         <v>778700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>542500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>528500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>465200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>468000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>353800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>274700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>214500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>194200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>187100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>156000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3508,38 +3648,41 @@
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>791500</v>
+      </c>
+      <c r="E61" s="3">
         <v>800500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>599300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>589700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>274300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>100800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>82600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>78100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>80200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3567,47 +3710,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2992800</v>
+      </c>
+      <c r="E62" s="3">
         <v>3687700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1116400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>729800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>330500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>321200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>316900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>56700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,47 +3958,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4596700</v>
+      </c>
+      <c r="E66" s="3">
         <v>5435500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2421900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2004400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1222600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1060300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>815400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>399100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>351400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>223000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>234400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>168000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,47 +4292,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2190600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2779500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-611100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-145100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>240600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>306900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>460400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>204300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>244100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>367600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>363900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-348500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,47 +4540,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1260500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1844600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>284200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>731300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1114300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1167600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1345400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1039300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1086600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1128400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1132700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>432500</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>511200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2284600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-544300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-439600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-82100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-116900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-95300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-95400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-77700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-77300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-50700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-54800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-28200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-19900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,58 +4819,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E83" s="3">
         <v>60100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>51800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>50100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>14300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4900</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,58 +5189,61 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="E89" s="3">
         <v>200900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-32400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>43700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-96000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>12400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-27400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-75700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-42600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-82700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,58 +5277,59 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,58 +5461,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-28900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-40400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-284100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-173300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-14800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12600</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,58 +5795,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>645400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>364600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>236000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>24200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>777300</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>82300</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5611,58 +5857,61 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E101" s="3">
         <v>9300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>7600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-325800</v>
+      </c>
+      <c r="E102" s="3">
         <v>816700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>380100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>99600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-360500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-115800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-250100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>706500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
+      <c r="S102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>523300</v>
+      </c>
+      <c r="E8" s="3">
         <v>485100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>540100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>437700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>364700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>331400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>382200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>255500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>209300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>174100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>202700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>134500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>144800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>125600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>126500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>93100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>79400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>293200</v>
+      </c>
+      <c r="E9" s="3">
         <v>264200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>291000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>228700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>205300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>178100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>206100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>140300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>90800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>108500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>67200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>69100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>64400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>61800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>41200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>36600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E10" s="3">
         <v>220900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>249100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>159400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>153300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>176100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>85300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>67300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>64700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>45700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>40200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,46 +1104,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="E14" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F14" s="3">
         <v>54000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-35200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,52 +1169,55 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>62700</v>
       </c>
       <c r="E15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F15" s="3">
         <v>111500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>35100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>6000</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>673600</v>
+      </c>
+      <c r="E17" s="3">
         <v>603500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>765000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>584700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>504800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>439200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>498000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>368000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>305100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>259600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>227300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>211300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>181600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>160700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>115700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>114300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>89700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>98100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-150300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-118400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-224900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-147000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-140100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-107800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-115800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-112500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-95800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-85500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-24600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-76800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-36800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-34300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-21200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-15700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>235000</v>
+      </c>
+      <c r="E20" s="3">
         <v>635100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2071800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-387100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-299900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147500</v>
+      </c>
+      <c r="E21" s="3">
         <v>570700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2236600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-480100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-388300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-60200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-55500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-80300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-63000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-70900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-12000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>-15500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E23" s="3">
         <v>516700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2296700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-534100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-440000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-76700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-110200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-90600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-94600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-77100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-76100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-54400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-28000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-15700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2500</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-100</v>
       </c>
       <c r="J24" s="3">
         <v>-100</v>
       </c>
       <c r="K24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>100</v>
       </c>
       <c r="V24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E26" s="3">
         <v>516700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2281000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-537000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-435900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-79200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-110100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-90500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-95400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-77700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-77300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-54800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-28200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-19900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E27" s="3">
         <v>511200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2284600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-544300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-439600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-82100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-116900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-95300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-77700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-77300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-54800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-28200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-19900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-235000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-635100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2071800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>387100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>299900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E33" s="3">
         <v>511200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2284600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-544300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-439600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-82100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-116900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-95300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-95400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-77700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-77300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-54800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-28200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-19900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E35" s="3">
         <v>511200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2284600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-544300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-439600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-82100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-116900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-95300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-95400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-77700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-77300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-54800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-28200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-19900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,50 +2573,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1048700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1247600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1573400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>756700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>802100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>422000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>322400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>318400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>678900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>794700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1044800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1043500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>337000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2549,31 +2636,34 @@
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>100100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2611,50 +2701,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E43" s="3">
         <v>283800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>209900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>190400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>211500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>214500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>194800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>153500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>121000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>111700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>43200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2673,50 +2766,53 @@
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>206700</v>
+      </c>
+      <c r="E44" s="3">
         <v>173100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>145300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>128100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>105300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>128100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>76300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>76800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>61000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>68300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>55600</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2735,29 +2831,32 @@
       <c r="V44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E45" s="3">
         <v>29000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8200</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2767,18 +2866,18 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>35000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>36700</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2797,50 +2896,53 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1695200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1733400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1961000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1121000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1143200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>749900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>645300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>577000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>876200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>981000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1199400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1223500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>472500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2859,50 +2961,53 @@
       <c r="V46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E47" s="3">
         <v>64700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>68700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>24600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>23500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>22700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>35000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>32600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>14300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>10300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2921,50 +3026,53 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>285300</v>
+      </c>
+      <c r="E48" s="3">
         <v>257000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>268300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>220100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>214900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>186900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>183200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>166300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>156300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>133200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2983,50 +3091,53 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1244800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1266800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1279300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1334400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1348900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1371700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1363000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1382500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>373300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>103300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>91900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>83900</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,32 +3286,35 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3207,8 +3327,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,50 +3416,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3304300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3336300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3590900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2706100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2735700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2336900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2227900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2160800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1438400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1438000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1351400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1367100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600500</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,50 +3533,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>614200</v>
+      </c>
+      <c r="E57" s="3">
         <v>556200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>666100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>459000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>450100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>381900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>447600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>334800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>237900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>199600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>102400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>187100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>80600</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3465,41 +3596,44 @@
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E58" s="3">
         <v>27200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14900</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,8 +3643,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,50 +3661,53 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E59" s="3">
         <v>55300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>86500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>64300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>91800</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>75400</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3589,50 +3726,53 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>712700</v>
+      </c>
+      <c r="E60" s="3">
         <v>638700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>778700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>542500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>528500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>465200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>468000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>353800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>274700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>214500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>194200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>187100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>156000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3651,41 +3791,44 @@
       <c r="V60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>795100</v>
+      </c>
+      <c r="E61" s="3">
         <v>791500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>599300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>589700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>274300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>100800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>82600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>80200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3713,50 +3856,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2643200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2992800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3687700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1116400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>729800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>330500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>321200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>316900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>56700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>47300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>12000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,50 +4116,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4311300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4596700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5435500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2421900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2004400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1222600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1060300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>815400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>399100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>351400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>223000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>234400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>168000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,50 +4466,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2056500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2779500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-611100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-145100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>240600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>306900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>460400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>204300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>244100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>367600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>363900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-348500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,50 +4726,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1007100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1844600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>284200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>731300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1114300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1167600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1345400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1039300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1086600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1128400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1132700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>432500</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>86600</v>
+      </c>
+      <c r="E81" s="3">
         <v>511200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2284600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-544300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-439600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-82100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-116900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-95300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-95400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-77700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-77300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-54800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-28200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-19900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,61 +5018,62 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E83" s="3">
         <v>54000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>60100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>51800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>50100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>14300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4900</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,61 +5406,64 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-58200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-282000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-32400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>43700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-96000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-27400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-75700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-82700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
+      <c r="T89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,61 +5498,62 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,61 +5691,64 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-133400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-38300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-28900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-40400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-284100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-173300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,61 +6041,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>645400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>364600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>236000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>777300</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>82300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -5860,61 +6106,64 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>9300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>7600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-198800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-325800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>816700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>380100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>99600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-360500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-115800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-250100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>706500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
+      <c r="T102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>582600</v>
+      </c>
+      <c r="E8" s="3">
         <v>523300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>485100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>540100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>437700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>364700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>331400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>382200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>255500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>209300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>174100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>202700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>134500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>144800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>125600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>126500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>93100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>79400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>82400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>330400</v>
+      </c>
+      <c r="E9" s="3">
         <v>293200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>264200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>291000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>228700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>205300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>178100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>206100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>140300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>90800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>108500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>67200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>69100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>64400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>61800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>41200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>36600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>252200</v>
+      </c>
+      <c r="E10" s="3">
         <v>230100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>220900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>249100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>209000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>159400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>153300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>176100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>85300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>94200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>67300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>45700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>40200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,49 +1124,52 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>54000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-35200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1172,55 +1192,58 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E15" s="3">
         <v>62700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>111500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>54000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>50100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>35100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>6000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>688300</v>
+      </c>
+      <c r="E17" s="3">
         <v>673600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>603500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>765000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>584700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>504800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>439200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>498000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>368000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>305100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>259600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>227300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>211300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>181600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>160700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>115700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>114300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>89700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>98100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-150300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-118400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-224900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-147000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-140100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-107800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-115800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-112500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-95800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-85500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-24600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-76800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-36800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-35100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-34300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-21200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>879300</v>
+      </c>
+      <c r="E20" s="3">
         <v>235000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>635100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2071800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-387100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-299900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>838400</v>
+      </c>
+      <c r="E21" s="3">
         <v>147500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>570700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2236600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-480100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-388300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-60200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-55500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-80300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-63000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-70900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-45300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>-15500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>773600</v>
+      </c>
+      <c r="E23" s="3">
         <v>84700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>516700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2296700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-534100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-440000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-76700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-110200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-94600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-77100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-76100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-50200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-54400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-28000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-15700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2500</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>769100</v>
+      </c>
+      <c r="E26" s="3">
         <v>87900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>516700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2281000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-537000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-435900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-79200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-110100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-90500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-95400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-77700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-77300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-50700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-54800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-28200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-19900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E27" s="3">
         <v>86600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>511200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2284600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-544300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-439600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-82100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-116900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-95300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-95400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-77700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-77300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-50700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-54800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-28200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-19900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-879300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-235000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-635100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2071800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>387100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>299900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E33" s="3">
         <v>86600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>511200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2284600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-544300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-439600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-82100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-116900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-95300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-95400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-77700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-77300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-50700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-54800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-28200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-19900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E35" s="3">
         <v>86600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>511200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2284600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-544300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-439600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-82100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-116900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-95300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-95400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-77700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-77300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-50700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-54800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-28200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-19900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,53 +2660,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1349700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1048700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1247600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1573400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>756700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>802100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>422000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>322400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>318400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>678900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>794700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1044800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1043500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>337000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2639,16 +2726,19 @@
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
         <v>100100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="E42" s="3">
+        <v>100100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2665,8 +2755,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2704,53 +2794,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>349200</v>
+      </c>
+      <c r="E43" s="3">
         <v>318000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>283800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>209900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>190400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>211500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>214500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>194800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>153500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>121000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>58600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>111700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>43200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2769,53 +2862,56 @@
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E44" s="3">
         <v>206700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>173100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>145300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>128100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>116000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>105300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>128100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>105100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>76300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>76800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>61000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>68300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55600</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2834,32 +2930,35 @@
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="3">
         <v>21600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>29000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2869,18 +2968,18 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>35000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>36700</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2899,53 +2998,56 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2023900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1695200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1733400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1961000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1121000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1143200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>749900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>645300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>577000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>876200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>981000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1199400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1223500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>472500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2964,53 +3066,56 @@
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E47" s="3">
         <v>63700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>64700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>68700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>24600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>22700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>32600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>14300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>10300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3029,53 +3134,56 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>297700</v>
+      </c>
+      <c r="E48" s="3">
         <v>285300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>257000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>268300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>220100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>214900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>186900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>183200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>166300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>156300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>133200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3094,53 +3202,56 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1360800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1244800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1266800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1279300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1334400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1348900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1371700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1363000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1382500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>373300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>305400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>103300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>91900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>83900</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,35 +3406,38 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E52" s="3">
         <v>15300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3330,8 +3450,8 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,53 +3542,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3755900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3304300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3336300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3590900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2706100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2735700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2336900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2227900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2160800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1438400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1438000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1351400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1367100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600500</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,53 +3664,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>638300</v>
+      </c>
+      <c r="E57" s="3">
         <v>614200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>556200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>666100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>459000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>450100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>381900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>447600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>334800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>237900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>199600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>102400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>187100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>80600</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3599,44 +3730,47 @@
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E58" s="3">
         <v>28400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14900</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3646,8 +3780,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3664,53 +3798,56 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E59" s="3">
         <v>70100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>55300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>86500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>58500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>91800</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>75400</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3729,53 +3866,56 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>755100</v>
+      </c>
+      <c r="E60" s="3">
         <v>712700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>638700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>778700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>542500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>528500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>465200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>468000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>353800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>274700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>214500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>194200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>187100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>156000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3794,44 +3934,47 @@
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>753800</v>
+      </c>
+      <c r="E61" s="3">
         <v>795100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>791500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>599300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>589700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>274300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>82600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>80200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3859,53 +4002,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2350500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2643200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2992800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3687700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1116400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>729800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>330500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>321200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>316900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>56700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>47300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>12000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,53 +4274,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4045100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4311300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4596700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5435500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2421900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2004400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1222600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1060300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>815400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>399100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>351400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>223000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>234400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>168000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,53 +4640,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1698400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2779500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-611100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-145100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>240600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>306900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>460400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>204300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>244100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>367600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>363900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-348500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,53 +4912,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-289200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1844600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>731300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1114300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1167600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1345400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1039300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1086600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1128400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1132700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>432500</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>767200</v>
+      </c>
+      <c r="E81" s="3">
         <v>86600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>511200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2284600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-544300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-439600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-82100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-116900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-95300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-95400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-77700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-77300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-50700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-54800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-28200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-19900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,64 +5217,65 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E83" s="3">
         <v>62700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>54000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>60100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>54000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>51800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>50100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>14300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4900</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,64 +5623,67 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-58200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-282000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-32400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>43700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-96000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-27400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-75700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-82700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
+      <c r="U89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,64 +5719,65 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,64 +5921,67 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-133400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-28900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-40400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-284100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-108800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-173300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,64 +6287,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>458700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>645400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>364600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>236000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>777300</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>82300</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,64 +6355,67 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3800</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>7600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-198800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-325800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>816700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-45400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>380100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>99600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-360500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-115800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-250100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>706500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
+      <c r="U102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>665700</v>
+      </c>
+      <c r="E8" s="3">
         <v>582600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>523300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>485100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>540100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>437700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>364700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>331400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>382200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>255500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>209300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>174100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>202700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>134500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>144800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>125600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>126500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>93100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>79400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>82400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>352300</v>
+      </c>
+      <c r="E9" s="3">
         <v>330400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>293200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>264200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>291000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>228700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>205300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>178100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>206100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>140300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>90800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>108500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>67200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>69100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>61800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>41200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>41700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>36600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>42200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E10" s="3">
         <v>252200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>230100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>220900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>249100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>209000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>159400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>176100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>85300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>94200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>45700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>42800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>40200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,52 +1143,55 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>54000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-35200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>10100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1195,58 +1214,61 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E15" s="3">
         <v>64800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>62700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>111500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>54000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>35100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>6000</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>767400</v>
+      </c>
+      <c r="E17" s="3">
         <v>688300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>673600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>603500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>765000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>584700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>504800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>439200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>498000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>368000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>305100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>259600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>227300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>211300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>181600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>160700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>160800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>115700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>114300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>89700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>98100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-105700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-150300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-118400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-224900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-147000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-140100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-107800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-115800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-112500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-95800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-85500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-24600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-36800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-35100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-34300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-28800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-15700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E20" s="3">
         <v>879300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>235000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>635100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-2071800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-2054400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-387100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-299900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>168300</v>
+      </c>
+      <c r="E21" s="3">
         <v>838400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>147500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>570700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-2236600</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2219200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-480100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-388300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-60200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-55500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-80300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-63000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-70900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-45300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>-15500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E23" s="3">
         <v>773600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>84700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>516700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2296700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-2279300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-534100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-440000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-76700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-110200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-94600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-77100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-76100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-50200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-54400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-28000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-15700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>100</v>
       </c>
       <c r="X24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E26" s="3">
         <v>769100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>516700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-2281000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2263600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-537000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-435900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-79200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-110100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-90500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-95400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-77700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-50700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-54800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-28200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-19900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-13800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E27" s="3">
         <v>767200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>86600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>511200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-2284600</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2267100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-544300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-439600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-82100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-116900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-95300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-95400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-77700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-50700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-54800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-28200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-19900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-13700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-879300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-235000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-635100</v>
       </c>
-      <c r="G32" s="3">
-        <v>2071800</v>
-      </c>
       <c r="H32" s="3">
+        <v>2054400</v>
+      </c>
+      <c r="I32" s="3">
         <v>387100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>299900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E33" s="3">
         <v>767200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>86600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>511200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-2284600</v>
-      </c>
       <c r="H33" s="3">
+        <v>-2267100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-544300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-439600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-82100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-116900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-95300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-95400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-77700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-50700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-54800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-28200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-19900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-13700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E35" s="3">
         <v>767200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>86600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>511200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-2284600</v>
-      </c>
       <c r="H35" s="3">
+        <v>-2267100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-544300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-439600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-82100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-116900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-95300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-95400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-77700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-50700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-54800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-28200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-19900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-13700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1363100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1349700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1048700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1247600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1573400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>756700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>802100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>422000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>322400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>318400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>678900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>794700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1044800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1043500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>337000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2729,19 +2815,22 @@
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100100</v>
+        <v>100000</v>
       </c>
       <c r="E42" s="3">
         <v>100100</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+      <c r="F42" s="3">
+        <v>100100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2758,8 +2847,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2797,56 +2886,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>374700</v>
+      </c>
+      <c r="E43" s="3">
         <v>349200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>318000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>283800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>209900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>190400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>211500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>214500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>194800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>153500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>58600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>111700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>43200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2865,56 +2957,59 @@
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>255700</v>
+      </c>
+      <c r="E44" s="3">
         <v>208900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>206700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>173100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>145300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>128100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>116000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>105300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>128100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>105100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>76300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>76800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>68300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55600</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
@@ -2933,35 +3028,38 @@
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E45" s="3">
         <v>16000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>29000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>32300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2971,18 +3069,18 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>35000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>36700</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2111700</v>
+      </c>
+      <c r="E46" s="3">
         <v>2023900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1695200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1733400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1961000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1121000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1143200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>749900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>645300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>577000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>876200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>981000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1199400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1223500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>472500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,56 +3170,59 @@
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E47" s="3">
         <v>53000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>63700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>64700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>68700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>22700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>32600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>11100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>14300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>10300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3137,56 +3241,59 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E48" s="3">
         <v>297700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>285300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>257000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>268300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>220100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>214900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>186900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>183200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>166300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>156300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>133200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3205,56 +3312,59 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1360800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1244800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1266800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1279300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1334400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1348900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1371700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1363000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1382500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>373300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>305400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>103300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>91900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>83900</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,38 +3525,41 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E52" s="3">
         <v>20500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3453,8 +3572,8 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3826500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3755900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3304300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3336300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3590900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2706100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2735700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2336900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2227900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2160800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1438400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1438000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1351400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1367100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600500</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,56 +3794,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>806400</v>
+      </c>
+      <c r="E57" s="3">
         <v>638300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>614200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>556200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>666100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>459000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>450100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>381900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>447600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>334800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>237900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>199600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>102400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>187100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>80600</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3733,47 +3863,50 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E58" s="3">
         <v>32500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>28400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14900</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3783,8 +3916,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,56 +3934,59 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67300</v>
+      </c>
+      <c r="E59" s="3">
         <v>84300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>55300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>86500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>61700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>58500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>91800</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>75400</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,56 +4005,59 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>907300</v>
+      </c>
+      <c r="E60" s="3">
         <v>755100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>712700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>638700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>778700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>542500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>528500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>465200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>468000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>353800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>274700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>214500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>194200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>187100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>156000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>8</v>
       </c>
@@ -3937,47 +4076,50 @@
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>696700</v>
+      </c>
+      <c r="E61" s="3">
         <v>753800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>795100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>791500</v>
       </c>
-      <c r="G61" s="3">
-        <v>800500</v>
-      </c>
       <c r="H61" s="3">
+        <v>783100</v>
+      </c>
+      <c r="I61" s="3">
         <v>599300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>589700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>274300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>100800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>82600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>78100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>80200</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4005,56 +4147,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1951900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2350500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2643200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2992800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3687700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1116400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>729800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>330500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>321200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>316900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>56700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>47300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>12000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,56 +4431,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3737900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4045100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4311300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4596700</v>
       </c>
-      <c r="G66" s="3">
-        <v>5435500</v>
-      </c>
       <c r="H66" s="3">
+        <v>5418100</v>
+      </c>
+      <c r="I66" s="3">
         <v>2421900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2004400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1222600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1060300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>815400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>399100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>351400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>223000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>234400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>168000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,56 +4813,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1543800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1698400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-2779500</v>
-      </c>
       <c r="H72" s="3">
+        <v>-2762000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-611100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-145100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>240600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>306900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>460400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>204300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>244100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>367600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>363900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-348500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,56 +5097,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>88600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-289200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1844600</v>
-      </c>
       <c r="H76" s="3">
+        <v>-1827200</v>
+      </c>
+      <c r="I76" s="3">
         <v>284200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>731300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1114300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1167600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1345400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1039300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1086600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1128400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1132700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>432500</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>101400</v>
+      </c>
+      <c r="E81" s="3">
         <v>767200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>86600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>511200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-2284600</v>
-      </c>
       <c r="H81" s="3">
+        <v>-2267100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-544300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-439600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-82100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-116900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-95300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-95400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-77700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-77300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-50700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-54800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-28200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-19900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-13700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,67 +5415,68 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E83" s="3">
         <v>64800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>62700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>54000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>51800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>51300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>50100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>14300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4900</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,67 +5839,70 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-69500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-58200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-282000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-32400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>43700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-96000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-27400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-75700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>32300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-82700</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
+      <c r="V89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,67 +5939,68 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,67 +6150,70 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-91500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-284100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-108800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-173300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-14800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12600</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,67 +6532,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E100" s="3">
         <v>458700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>645400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>364600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>236000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>24200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2700</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>777300</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>82300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
+      <c r="V100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6358,67 +6603,70 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E101" s="3">
         <v>3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3800</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>7600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E102" s="3">
         <v>301000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-198800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-325800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>816700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-45400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>380100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>99600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-360500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-115800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-250100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>706500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
+      <c r="V102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>579300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>514800</v>
+      </c>
+      <c r="F8" s="3">
         <v>665700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>582600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>523300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>485100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>540100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>437700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>364700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>331400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>382200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>255500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>209300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>174100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>202700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>134500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>144800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>125600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>126500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>86900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>93100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>79400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>82400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>311700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>284300</v>
+      </c>
+      <c r="F9" s="3">
         <v>352300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>330400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>293200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>264200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>291000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>228700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>205300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>178100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>206100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>140300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>124000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>90800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>108500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>67200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>69100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>64400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>61800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>41200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>41700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>36600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>42200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>267600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>230500</v>
+      </c>
+      <c r="F10" s="3">
         <v>313400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>252200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>230100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>220900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>249100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>209000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>159400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>153300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>176100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>115200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>85300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>83300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>94200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>67300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>75700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>61200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>64700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>45700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>51400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>42800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>40200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,58 +1180,64 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F14" s="3">
         <v>18900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>4700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>54000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-35200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,64 +1257,70 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F15" s="3">
         <v>69700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>64800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>62700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>54000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>111500</v>
       </c>
       <c r="I15" s="3">
         <v>54000</v>
       </c>
       <c r="J15" s="3">
+        <v>111500</v>
+      </c>
+      <c r="K15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="L15" s="3">
         <v>51800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>51300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>50100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>35100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>14300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>14100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>747000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>675700</v>
+      </c>
+      <c r="F17" s="3">
         <v>767400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>688300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>673600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>603500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>765000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>584700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>504800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>439200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>498000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>368000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>305100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>259600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>227300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>211300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>181600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>160700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>160800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>115700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>114300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>89700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>98100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-167700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-101700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-105700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-150300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-118400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-224900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-147000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-140100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-107800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-115800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-112500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-95800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-85500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-76800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-36800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-35100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-34300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-28800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-21200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-10300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1547,164 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>892700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>879300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>235000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>635100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2054400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-387100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-299900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>31100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>21900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>14900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>19300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-15100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-20200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>813300</v>
+      </c>
+      <c r="F21" s="3">
         <v>168300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>838400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>147500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>570700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2219200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-480100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-388300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-25300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-60200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-55500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-80300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-63000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-70900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-12000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-45300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>-15500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1774,168 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>731800</v>
+      </c>
+      <c r="F23" s="3">
         <v>98600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>773600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>84700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>516700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-2279300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-534100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-440000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-76700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-110200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-90600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-94600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-77100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-76100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-17500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-50200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-54400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-28000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-20500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-9200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-15700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>-600</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
       </c>
       <c r="X24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>728800</v>
+      </c>
+      <c r="F26" s="3">
         <v>96900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>769100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>87900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>516700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-2263600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-537000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-435900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-79200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-110100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-90500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-95400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-77700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-77300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-17700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-50700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-54800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-28200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-19900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-9300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-13800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>734300</v>
+      </c>
+      <c r="F27" s="3">
         <v>101400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>767200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>86600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>511200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-2267100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-544300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-439600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-82100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-116900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-95300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-95400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-77700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-77300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-17700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-50700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-54800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-28200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-19900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-9300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-892700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-879300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-235000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-635100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2054400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>387100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>299900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-31100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-21900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-19300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>15100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>20200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>734300</v>
+      </c>
+      <c r="F33" s="3">
         <v>101400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>767200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>86600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>511200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-2267100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-544300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-439600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-82100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-116900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-95300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-95400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-77700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-77300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-17700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-50700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-54800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-28200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-19900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-9300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>734300</v>
+      </c>
+      <c r="F35" s="3">
         <v>101400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>767200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>86600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>511200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-2267100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-544300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-439600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-82100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-116900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-95300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-95400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-77700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-77300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-17700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-50700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-54800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-28200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-19900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-9300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2919,64 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>575600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>938000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1363100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1349700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1048700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1247600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1573400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>756700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>802100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>422000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>322400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>318400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>678900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>794700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1044800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1043500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>337000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2818,26 +2992,32 @@
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>99600</v>
+      </c>
+      <c r="F42" s="3">
         <v>100000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>100100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>100100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
@@ -2850,11 +3030,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2889,62 +3069,68 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>454700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>422200</v>
+      </c>
+      <c r="F43" s="3">
         <v>374700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>349200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>318000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>283800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>209900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>190400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>211500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>214500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>194800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>153500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>121000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>109600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>58600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>111700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>43200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2960,62 +3146,68 @@
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>301100</v>
+      </c>
+      <c r="F44" s="3">
         <v>255700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>208900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>206700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>173100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>145300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>128100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>116000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>105300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>128100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>105100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>76300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>76800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>61000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>68300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>55600</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3031,62 +3223,68 @@
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>21600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>29000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>32300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>45800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>35000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>36700</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3102,62 +3300,68 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1441400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1778500</v>
+      </c>
+      <c r="F46" s="3">
         <v>2111700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2023900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1695200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1733400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1961000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1121000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1143200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>749900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>645300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>577000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>876200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>981000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1199400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1223500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>472500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3173,62 +3377,68 @@
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>236400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F47" s="3">
         <v>49200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>53000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>63700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>64700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>68700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>24600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>23500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>22700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>31100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>35000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>32600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>18300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>11100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>14300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>10300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3244,62 +3454,68 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>298200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>298700</v>
+      </c>
+      <c r="F48" s="3">
         <v>292600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>297700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>285300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>257000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>268300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>220100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>214900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>186900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>183200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>166300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>156300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>133200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>37500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>37400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>33800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3315,62 +3531,68 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1721100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1742600</v>
+      </c>
+      <c r="F49" s="3">
         <v>1359700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1360800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1244800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1266800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1279300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1334400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1348900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1371700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1363000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1382500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>373300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>305400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>103300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>91900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>83900</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,43 +3762,49 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F52" s="3">
         <v>13300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>20500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>15300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>13600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5700</v>
       </c>
       <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5300</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
@@ -3575,11 +3815,11 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3916,68 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3715900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3870900</v>
+      </c>
+      <c r="F54" s="3">
         <v>3826500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3755900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3304300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3336300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3590900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2706100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2735700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2336900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2227900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2160800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1438400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1438000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1351400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1367100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>600500</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +4055,64 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>707700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>648600</v>
+      </c>
+      <c r="F57" s="3">
         <v>806400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>638300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>614200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>556200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>666100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>459000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>450100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>381900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>447600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>334800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>237900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>199600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>102400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>187100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>80600</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3866,64 +4128,70 @@
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>34400</v>
+      </c>
+      <c r="F58" s="3">
         <v>33600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>32500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>28400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>27200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>26100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>18900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>18500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>18000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>36900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>14900</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3937,62 +4205,68 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>182600</v>
+      </c>
+      <c r="F59" s="3">
         <v>67300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>84300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>70100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>55300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>86500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>61700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>58500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>64300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>91800</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>75400</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4008,62 +4282,68 @@
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>917700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>865600</v>
+      </c>
+      <c r="F60" s="3">
         <v>907300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>755100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>712700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>638700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>778700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>542500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>528500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>465200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>468000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>353800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>274700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>214500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>194200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>187100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>156000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4079,53 +4359,59 @@
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>722100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>717900</v>
+      </c>
+      <c r="F61" s="3">
         <v>696700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>753800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>795100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>791500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>783100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>599300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>589700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>274300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>100800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>82600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>78100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>80200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4150,62 +4436,68 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>959700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1238800</v>
+      </c>
+      <c r="F62" s="3">
         <v>1951900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2350500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2643200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2992800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3687700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1116400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>729800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>330500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>321200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>316900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>46000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>56700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>28800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>47300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>12000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4744,68 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2762300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000200</v>
+      </c>
+      <c r="F66" s="3">
         <v>3737900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4045100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4311300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4596700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5418100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2421900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2004400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1222600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1060300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>815400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>399100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>351400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>223000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>234400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>168000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +5158,68 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-655700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-765600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1543800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1698400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2762000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-611100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-145100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>240600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>306900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>460400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>204300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>244100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>367600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>363900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-348500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5466,68 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>953600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>870700</v>
+      </c>
+      <c r="F76" s="3">
         <v>88600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-289200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1827200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>284200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>731300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1114300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1167600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1345400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1039300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1086600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1128400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1132700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>432500</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>70500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>734300</v>
+      </c>
+      <c r="F81" s="3">
         <v>101400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>767200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>86600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>511200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-2267100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-544300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-439600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-82100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-116900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-95300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-95400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-77700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-77300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-17700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-50700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-54800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-28200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-19900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-9300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>81500</v>
+      </c>
+      <c r="F83" s="3">
         <v>69700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>64800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>62700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>54000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>60100</v>
       </c>
       <c r="I83" s="3">
         <v>54000</v>
       </c>
       <c r="J83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="L83" s="3">
         <v>51800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>51300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>50100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>35100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>14300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>14100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>4900</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-336700</v>
+      </c>
+      <c r="F89" s="3">
         <v>127500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-69500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-58200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-282000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>200900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-32400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>43700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-96000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-35900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-27400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-75700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>32300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-42600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-23300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-82700</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
+      <c r="W89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-25000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-5100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-278800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-74900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-67400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-91500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-133400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-38300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-38900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-28900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-24400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-40400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-17300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-284100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-108800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-173300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-16900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-14800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-12600</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +7021,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-43500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>458700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-12200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>645400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>364600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>236000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-27500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>24200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2700</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>777300</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>82300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
+      <c r="W100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-7800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>9300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-3800</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>7600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-6300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-362400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-425200</v>
+      </c>
+      <c r="F102" s="3">
         <v>13400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>301000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-198800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-325800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>816700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-45400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>380100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>99600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-360500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-115800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-250100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>706500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-34400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-12700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
+      <c r="W102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>629200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>593400</v>
+      </c>
+      <c r="F8" s="3">
         <v>579300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>514800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>665700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>582600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>523300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>485100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>540100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>437700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>364700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>331400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>382200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>255500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>209300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>174100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>202700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>134500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>144800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>125600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>126500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>86900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>93100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>79400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>82400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>370800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>326800</v>
+      </c>
+      <c r="F9" s="3">
         <v>311700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>284300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>352300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>330400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>293200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>264200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>291000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>228700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>205300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>178100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>206100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>140300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>124000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>90800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>108500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>67200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>69100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>64400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>61800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>41200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>41700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>36600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>42200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>258400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>266600</v>
+      </c>
+      <c r="F10" s="3">
         <v>267600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>230500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>313400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>252200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>230100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>220900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>249100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>209000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>159400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>153300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>176100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>115200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>85300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>83300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>94200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>67300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>75700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>61200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>64700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>45700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>51400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>42800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>40200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,64 +1219,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44100</v>
+      </c>
+      <c r="F14" s="3">
         <v>4800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>8200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>18900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>54000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>7300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-35200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1263,70 +1302,76 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>84800</v>
+      </c>
+      <c r="F15" s="3">
         <v>80600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>81500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>69700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>64800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>62700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>54000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>111500</v>
       </c>
       <c r="K15" s="3">
         <v>54000</v>
       </c>
       <c r="L15" s="3">
+        <v>111500</v>
+      </c>
+      <c r="M15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="N15" s="3">
         <v>51800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>51300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>50100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>35100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>14300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>14100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>6000</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>929400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>811800</v>
+      </c>
+      <c r="F17" s="3">
         <v>747000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>675700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>767400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>688300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>673600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>603500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>765000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>584700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>504800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>439200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>498000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>368000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>305100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>259600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>227300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>211300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>181600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>160700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>160800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>115700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>114300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>89700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>98100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-218400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-167700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-160900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-101700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-105700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-150300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-118400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-224900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-147000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-140100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-107800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-115800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-112500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-95800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-85500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-24600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-76800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-36800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-35100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-34300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-28800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-21200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-15700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="F20" s="3">
         <v>228000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>892700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>879300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>235000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>635100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2054400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-387100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-299900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>31100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>21900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>14900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>19300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-15100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-20200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="F21" s="3">
         <v>140900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>813300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>168300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>838400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>147500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>570700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2219200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-480100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-388300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-60200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-55500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-63000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-70900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-12000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-45300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-274700</v>
+      </c>
+      <c r="F23" s="3">
         <v>60400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>731800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>98600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>773600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>84700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>516700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2279300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-534100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-440000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-76700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-110200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-90600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-94600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-77100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-76100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-17500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-50200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-54400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-28000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-3200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-15700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-4100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>400</v>
-      </c>
-      <c r="W24" s="3">
-        <v>200</v>
-      </c>
-      <c r="X24" s="3">
-        <v>-600</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
       <c r="Z24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-176700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-274900</v>
+      </c>
+      <c r="F26" s="3">
         <v>67700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>728800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>96900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>769100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>87900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>516700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2263600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-537000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-435900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-79200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-110100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-90500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-77700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-77300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-17700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-50700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-54800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-28200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-13800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-274200</v>
+      </c>
+      <c r="F27" s="3">
         <v>70500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>734300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>101400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>767200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>86600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>511200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2267100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-544300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-439600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-82100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-116900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-95300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-77700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-9900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-77300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-17700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-50700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-54800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-28200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-228000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-892700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-879300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-235000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-635100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2054400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>387100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>299900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-31100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-21900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-14900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-19300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>15100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>20200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-274200</v>
+      </c>
+      <c r="F33" s="3">
         <v>70500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>734300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>101400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>767200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>86600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>511200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2267100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-544300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-439600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-82100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-116900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-95300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-77700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-9900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-77300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-17700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-50700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-54800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-28200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-274200</v>
+      </c>
+      <c r="F35" s="3">
         <v>70500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>734300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>101400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>767200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>86600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>511200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2267100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-544300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-439600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-82100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-116900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-95300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-77700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-9900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-77300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-17700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-50700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-54800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-28200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,68 +3092,70 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>734200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>487400</v>
+      </c>
+      <c r="F41" s="3">
         <v>575600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>938000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1363100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1349700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1048700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1247600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1573400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>756700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>802100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>422000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>322400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>318400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>678900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>794700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1044800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1043500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>337000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2998,32 +3171,38 @@
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>99600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>99600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>100000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>100100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>100100</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3036,11 +3215,11 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3075,68 +3254,74 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>492600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>460300</v>
+      </c>
+      <c r="F43" s="3">
         <v>454700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>422200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>374700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>349200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>318000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>283800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>209900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>190400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>211500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>214500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>194800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>153500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>121000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>109600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>58600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>111700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>43200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3152,68 +3337,74 @@
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>304700</v>
+      </c>
+      <c r="F44" s="3">
         <v>291600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>301100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>255700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>208900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>206700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>173100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>145300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>128100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>116000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>105300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>128100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>105100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>76300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>76800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>61000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>68300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>55600</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3229,68 +3420,74 @@
       <c r="AA44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F45" s="3">
         <v>19900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>17600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>21600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>29000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>32300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>45800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>35000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>36700</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3306,68 +3503,74 @@
       <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1589400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1270600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1441400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1778500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2111700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2023900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1695200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1733400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1961000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1121000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1143200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>749900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>645300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>577000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>876200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>981000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1199400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1223500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>472500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3383,68 +3586,74 @@
       <c r="AA46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>240400</v>
+      </c>
+      <c r="F47" s="3">
         <v>236400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>36100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>49200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>53000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>63700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>64700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>68700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>24600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>23500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>22700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>31100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>35000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>32600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>18300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>11100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>14300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>10300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3460,68 +3669,74 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>266800</v>
+      </c>
+      <c r="F48" s="3">
         <v>298200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>298700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>292600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>297700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>285300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>257000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>268300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>220100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>214900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>186900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>183200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>166300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>156300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>133200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>37500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>37400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>33800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3537,68 +3752,74 @@
       <c r="AA48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1547800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1635900</v>
+      </c>
+      <c r="F49" s="3">
         <v>1721100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1742600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1359700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1360800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1244800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1266800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1279300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1334400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1348900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1371700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1363000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1382500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>373300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>305400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>103300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>91900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>83900</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,49 +4001,55 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F52" s="3">
         <v>18800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>14900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>13300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>20500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>15300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>5900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>5700</v>
       </c>
       <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
+      <c r="O52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>5300</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
@@ -3821,11 +4060,11 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4167,74 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3675900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3430400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3715900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3870900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3826500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3755900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3304300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3336300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3590900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2706100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2735700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2336900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2227900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2160800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1438400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1438000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1351400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1367100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>600500</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3999,8 +4250,14 @@
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,68 +4316,70 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>740800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>664500</v>
+      </c>
+      <c r="F57" s="3">
         <v>707700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>648600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>806400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>638300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>614200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>556200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>666100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>459000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>450100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>381900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>447600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>334800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>237900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>199600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>102400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>187100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>80600</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4134,70 +4395,76 @@
       <c r="AA57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F58" s="3">
         <v>36700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>34400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>33600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>32500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>28400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>27200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>26100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>20000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>18900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>18500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>18000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>36900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>14900</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4211,68 +4478,74 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>182400</v>
+      </c>
+      <c r="F59" s="3">
         <v>173300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>182600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>67300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>84300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>70100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>55300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>86500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>61700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>58500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>64300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>91800</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>75400</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4288,68 +4561,74 @@
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>882900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>883200</v>
+      </c>
+      <c r="F60" s="3">
         <v>917700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>865600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>907300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>755100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>712700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>638700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>778700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>542500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>528500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>465200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>468000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>353800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>274700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>214500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>194200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>187100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>156000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4365,59 +4644,65 @@
       <c r="AA60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1070900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>721200</v>
+      </c>
+      <c r="F61" s="3">
         <v>722100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>717900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>696700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>753800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>795100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>791500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>783100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>599300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>589700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>274300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>100800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>82600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>78100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>80200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4442,68 +4727,74 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>816500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>924600</v>
+      </c>
+      <c r="F62" s="3">
         <v>959700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1238800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1951900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2350500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2643200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2992800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3687700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1116400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>729800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>330500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>321200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>316900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>46000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>56700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>28800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>47300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>12000</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +5059,74 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2927700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2762300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3737900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4045100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4311300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4596700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5418100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2421900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2004400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1222600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1060300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>815400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>399100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>351400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>223000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>234400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>168000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4827,8 +5142,14 @@
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,68 +5505,74 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-916800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-866100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-655700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-765600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1543800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1698400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2762000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-611100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-145100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>240600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>306900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>460400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>204300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>244100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>367600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>363900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-348500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5241,8 +5588,14 @@
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,68 +5837,74 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>748200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>739400</v>
+      </c>
+      <c r="F76" s="3">
         <v>953600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>870700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>88600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-289200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1827200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>284200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>731300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1114300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1167600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1345400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1039300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1086600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1128400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1132700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>432500</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5549,8 +5920,14 @@
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-171300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-274200</v>
+      </c>
+      <c r="F81" s="3">
         <v>70500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>734300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>101400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>767200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>86600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>511200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2267100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-544300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-439600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-82100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-116900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-95300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-95400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-77700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-9900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-77300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-17700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-50700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-54800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-28200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-19900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>84800</v>
+      </c>
+      <c r="F83" s="3">
         <v>80600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>81500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>69700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>64800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>62700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>54000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>60100</v>
       </c>
       <c r="K83" s="3">
         <v>54000</v>
       </c>
       <c r="L83" s="3">
+        <v>60100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>54000</v>
+      </c>
+      <c r="N83" s="3">
         <v>51800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>51300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>50100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>35100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>14300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>14100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>8000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>4900</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-60200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-336700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>127500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-69500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-58200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-282000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-32400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>43700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-96000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>12400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-35900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-75700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>32300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-42600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-23300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-82700</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>0</v>
+      <c r="Y89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-10100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-6100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-5200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-278800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-74900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-67400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-91500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-133400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-38300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-38900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-28900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-40400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-17300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-284100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-108800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-173300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-19300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-16900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-14800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-12600</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>303700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-23100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-14500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-43500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>458700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-12200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>645400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>364600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>236000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-27500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>24200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2700</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>777300</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>82300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>0</v>
+      <c r="Y100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-7800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3800</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>7600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-16700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-6300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>3700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>246800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-362400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-425200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>13400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>301000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-198800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-325800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>816700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-45400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>380100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>99600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-360500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-115800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-250100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>706500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-34400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-12700</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
+      <c r="Y102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>556400</v>
+      </c>
+      <c r="E8" s="3">
         <v>629200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>593400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>579300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>514800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>665700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>582600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>523300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>485100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>540100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>437700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>364700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>331400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>382200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>255500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>209300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>174100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>202700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>134500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>144800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>125600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>126500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>86900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>93100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>79400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>82400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315800</v>
+      </c>
+      <c r="E9" s="3">
         <v>370800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>326800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>311700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>284300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>352300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>330400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>293200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>264200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>291000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>228700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>205300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>178100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>206100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>140300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>124000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>90800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>108500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>67200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>69100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>64400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>61800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>41200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>41700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>36600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>42200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E10" s="3">
         <v>258400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>266600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>267600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>230500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>252200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>230100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>220900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>249100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>209000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>159400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>153300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>176100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>115200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>85300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>83300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>94200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>75700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>61200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>64700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>45700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>51400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>42800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>40200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,67 +1242,70 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E14" s="3">
         <v>113800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>44100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>54000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2500</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1308,73 +1328,76 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E15" s="3">
         <v>86000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>84800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>80600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>81500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>69700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>62700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>111500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>54000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>50100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>35100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>14300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14100</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>6000</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>734500</v>
+      </c>
+      <c r="E17" s="3">
         <v>929400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>811800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>747000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>675700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>767400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>688300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>673600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>603500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>765000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>584700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>504800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>439200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>498000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>368000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>305100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>259600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>227300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>211300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>181600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>160700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>160800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>115700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>114300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>89700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>98100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-178100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-218400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-167700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-160900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-101700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-105700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-150300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-118400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-224900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-147000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-140100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-107800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-115800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-112500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-95800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-85500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-24600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-76800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-36800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-35100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-34300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-28800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-15700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E20" s="3">
         <v>124000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-56300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>228000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>892700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>879300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>235000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>635100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2054400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-387100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-299900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-15100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-90200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-190000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>140900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>813300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>168300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>838400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>147500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>570700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2219200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-480100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-388300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-60200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-55500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-80300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-63000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-70900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-12000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-45300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-15500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-198700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-176100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-274700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>60400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>731800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>98600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>773600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>84700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>516700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2279300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-534100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-440000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-76700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-110200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-90600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-94600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-77100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-76100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-50200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-54400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-20500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-15700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-100</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>100</v>
       </c>
       <c r="AC24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-176700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-274900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>67700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>728800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>96900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>769100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>516700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2263600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-537000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-435900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-79200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-110100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-90500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-95400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-77700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-77300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-50700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-13800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-171900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-171300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-274200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>70500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>734300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>101400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>767200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>86600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>511200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2267100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-544300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-439600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-82100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-95300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-95400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-77700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-77300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-50700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-124000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>56300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-228000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-892700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-879300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-235000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-635100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2054400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>387100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>299900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>15100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-171900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-171300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-274200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>70500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>734300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>101400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>767200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>86600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>511200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2267100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-544300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-439600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-82100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-95300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-95400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-77700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-77300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-50700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-171900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-171300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-274200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>70500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>734300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>101400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>767200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>86600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>511200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2267100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-544300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-439600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-82100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-95300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-95400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-77700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-77300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-50700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,71 +3180,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E41" s="3">
         <v>734200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>487400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>575600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>938000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1363100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1349700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1048700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1247600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1573400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>756700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>802100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>422000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>322400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>318400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>678900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>794700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1044800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1043500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>337000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3177,34 +3264,37 @@
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>99600</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>99600</v>
       </c>
       <c r="H42" s="3">
+        <v>99600</v>
+      </c>
+      <c r="I42" s="3">
         <v>100000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>100100</v>
       </c>
       <c r="J42" s="3">
         <v>100100</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>100100</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -3221,8 +3311,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3260,71 +3350,74 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>515600</v>
+      </c>
+      <c r="E43" s="3">
         <v>492600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>460300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>454700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>422200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>374700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>349200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>318000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>283800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>209900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>190400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>211500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>214500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>194800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>153500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>121000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>109600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>58600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>111700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>43200</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3343,71 +3436,74 @@
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E44" s="3">
         <v>346000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>304700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>291600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>301100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>255700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>208900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>206700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>173100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>145300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>128100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>116000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>105300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>128100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>105100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>76300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>76800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>68300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>55600</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3426,50 +3522,53 @@
       <c r="AC44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>16700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>45800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3479,18 +3578,18 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>35000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="V45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W45" s="3">
         <v>36700</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3509,71 +3608,74 @@
       <c r="AC45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1375700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1589400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1270600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1441400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1778500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2111700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2023900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1695200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1733400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1961000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1121000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1143200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>749900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>645300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>577000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>876200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>981000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1199400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1223500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>472500</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3592,71 +3694,74 @@
       <c r="AC46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E47" s="3">
         <v>240300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>240400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>236400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>36100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>49200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>53000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>63700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>64700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>68700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>22700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>31100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>32600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>14300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>10300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3675,71 +3780,74 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>301900</v>
+      </c>
+      <c r="E48" s="3">
         <v>278800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>266800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>298200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>298700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>292600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>297700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>285300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>257000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>268300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>220100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>214900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>186900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>183200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>166300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>156300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>133200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3758,71 +3866,74 @@
       <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1528200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1547800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1635900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1721100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1742600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1359700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1360800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1244800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1266800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1279300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1334400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1348900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1371700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1363000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1382500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>373300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>305400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>103300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>91900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>83900</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,53 +4124,56 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E52" s="3">
         <v>19600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4066,8 +4186,8 @@
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,71 +4296,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3675900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3430400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3715900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3870900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3826500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3755900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3304300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3336300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3590900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2706100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2735700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2336900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2227900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2160800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1438400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1438000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1351400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1367100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600500</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,71 +4448,72 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>640600</v>
+      </c>
+      <c r="E57" s="3">
         <v>740800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>664500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>707700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>648600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>806400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>638300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>614200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>556200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>666100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>459000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>450100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>381900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>447600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>334800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>237900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>199600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>102400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>187100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>80600</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4401,62 +4532,65 @@
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E58" s="3">
         <v>37000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>36400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>36700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>33600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>32500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>14900</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4466,8 +4600,8 @@
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4484,71 +4618,74 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>103300</v>
+      </c>
+      <c r="E59" s="3">
         <v>105000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>182400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>173300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>182600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>55300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>86500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>58500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>64300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>91800</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>75400</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4567,71 +4704,74 @@
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>786300</v>
+      </c>
+      <c r="E60" s="3">
         <v>882900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>883200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>917700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>865600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>907300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>755100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>712700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>638700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>778700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>542500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>528500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>465200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>468000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>353800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>274700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>214500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>194200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>187100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>156000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4650,62 +4790,65 @@
       <c r="AC60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1070900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>721200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>722100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>717900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>696700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>753800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>795100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>791500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>783100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>599300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>589700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>274300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>100800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>82600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>78100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>80200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4733,71 +4876,74 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>795100</v>
+      </c>
+      <c r="E62" s="3">
         <v>816500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>924600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>959700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1238800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1951900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2350500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2643200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2992800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3687700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1116400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>729800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>330500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>321200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>316900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>46000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>56700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>28800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>47300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,71 +5220,74 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2837400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2927700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2691000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2762300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3737900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4045100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4311300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4596700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5418100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2421900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2004400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1222600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1060300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>815400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>399100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>351400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>223000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>234400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>168000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,71 +5682,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1023300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-916800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-866100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-655700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-765600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1543800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1698400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2762000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-611100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-145100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>240600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>306900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>460400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>204300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>244100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>367600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>363900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-348500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,71 +6026,74 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>648600</v>
+      </c>
+      <c r="E76" s="3">
         <v>748200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>739400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>953600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>870700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>88600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-289200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1827200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>284200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>731300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1114300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1167600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1345400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1039300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1086600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1128400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1132700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>432500</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-171900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-171300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-274200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>70500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>734300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>101400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>767200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>86600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>511200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2267100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-544300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-439600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-82100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-116900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-95300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-95400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-77700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-77300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-50700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-54800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-28200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-19900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,82 +6409,83 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E83" s="3">
         <v>86000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>84800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>81500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>62700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>60100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>54000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>51800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>50100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>4900</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,82 +6923,85 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-18400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-121300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-60200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-336700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>127500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-69500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-58200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-282000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-32400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>43700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-96000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-35900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-27400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-75700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-42600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-23300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-82700</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
+      <c r="AA89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -6792,8 +7009,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,82 +7043,83 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-47000</v>
       </c>
       <c r="E91" s="3">
-        <v>-9400</v>
+        <v>-40100</v>
       </c>
       <c r="F91" s="3">
-        <v>-6900</v>
+        <v>-49000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4900</v>
+        <v>-51200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8100</v>
+        <v>-30500</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-44800</v>
       </c>
       <c r="J91" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5200</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
@@ -6906,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,82 +7299,85 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-36800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>46200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-278800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-67400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-133400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-284100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-108800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-173300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-12600</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,82 +7761,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E100" s="3">
         <v>303700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-9200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-23100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-43500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>458700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>645400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>364600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>236000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-27500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>24200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2700</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>777300</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>82300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
+      <c r="AA100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7601,82 +7847,85 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3800</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>7600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
+      <c r="AA101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB101" s="3">
         <v>0</v>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-248300</v>
+      </c>
+      <c r="E102" s="3">
         <v>246800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-88200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-362400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-425200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>301000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-198800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-325800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>816700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>380100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>99600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-360500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-115800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-250100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>706500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-34400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-12700</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
+      <c r="AA102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>572100</v>
+      </c>
+      <c r="E8" s="3">
         <v>556400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>629200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>593400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>579300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>514800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>665700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>582600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>523300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>485100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>540100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>437700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>364700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>331400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>382200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>255500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>209300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>174100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>202700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>134500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>144800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>125600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>126500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>86900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>93100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>79400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>82400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>54500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>329200</v>
+      </c>
+      <c r="E9" s="3">
         <v>315800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>370800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>326800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>311700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>284300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>352300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>330400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>293200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>264200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>291000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>228700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>205300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>178100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>206100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>140300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>124000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>90800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>108500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>67200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>69100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>64400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>61800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>41200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>41700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>36600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>42200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>27500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E10" s="3">
         <v>240600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>258400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>266600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>267600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>230500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>252200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>230100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>220900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>249100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>209000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>159400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>153300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>176100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>115200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>85300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>83300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>94200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>67300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>75700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>61200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>64700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>45700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>51400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>42800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>40200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,70 +1262,73 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E14" s="3">
         <v>6600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>113800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>44100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>54000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-35200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2500</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1331,76 +1351,79 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>87400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>86000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>84800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>80600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>81500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>69700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>62700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>54000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>111500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>35100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>14300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>14100</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="3">
         <v>6000</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>734500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>929400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>811800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>747000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>675700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>767400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>688300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>673600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>603500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>765000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>584700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>504800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>439200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>498000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>368000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>305100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>259600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>227300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>211300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>181600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>160700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>160800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>115700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>114300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>89700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>98100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>79300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-178100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-218400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-167700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-160900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-101700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-105700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-150300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-118400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-224900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-147000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-140100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-107800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-115800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-112500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-95800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-85500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-24600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-76800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-36800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-35100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-34300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-28800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-10300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-15700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-20600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>124000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-56300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>228000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>892700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>879300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>235000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>635100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2054400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-387100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-299900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-111300</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-444100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-90200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-190000</v>
       </c>
-      <c r="G21" s="3">
-        <v>140900</v>
-      </c>
       <c r="H21" s="3">
-        <v>813300</v>
+        <v>222400</v>
       </c>
       <c r="I21" s="3">
+        <v>562100</v>
+      </c>
+      <c r="J21" s="3">
         <v>168300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>838400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>147500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>570700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2219200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-480100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-388300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-60200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-55500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-80300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-63000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-70900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-12000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-45300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-15500</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-198700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-176100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-274700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>60400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>731800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>98600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>773600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>84700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>516700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2279300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-534100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-440000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-76700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-110200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-90600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-94600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-77100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-76100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-50200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-54400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-28000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-24500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-15700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-100</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>200</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>100</v>
       </c>
       <c r="AD24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-174300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-176700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-274900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>67700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>728800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>96900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>769100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>87900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>516700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2263600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-537000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-435900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-79200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-110100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-90500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-95400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-77700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-77300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-17700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-50700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-19900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-13800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-171900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-171300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-274200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>70500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>734300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>101400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>767200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>86600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>511200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2267100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-544300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-439600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-116900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-95300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-95400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-77700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-77300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-17700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-50700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-19900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>20600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-124000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>56300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-228000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-892700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-879300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-235000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-635100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2054400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>387100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>299900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>20200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-171900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-171300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-274200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>70500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>734300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>101400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>767200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>86600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>511200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2267100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-544300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-439600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-116900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-95300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-95400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-77700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-77300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-17700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-50700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-19900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-171900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-171300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-274200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>70500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>734300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>101400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>767200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>86600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>511200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2267100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-544300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-439600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-116900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-95300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-95400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-77700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-77300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-17700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-50700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-19900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,74 +3267,75 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="3">
         <v>485900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>734200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>487400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>575600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>938000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1363100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1349700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1048700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1247600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1573400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>756700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>802100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>422000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>322400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>318400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>678900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>794700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1044800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1043500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>337000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3267,37 +3354,40 @@
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>99600</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>99600</v>
       </c>
       <c r="I42" s="3">
+        <v>99600</v>
+      </c>
+      <c r="J42" s="3">
         <v>100000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>100100</v>
       </c>
       <c r="K42" s="3">
         <v>100100</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="L42" s="3">
+        <v>100100</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -3314,8 +3404,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3353,74 +3443,77 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="3">
         <v>515600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>492600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>460300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>454700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>422200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>374700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>349200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>318000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>283800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>209900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>190400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>211500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>214500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>194800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>153500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>121000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>109600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>58600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>111700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>43200</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3439,74 +3532,77 @@
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
         <v>350400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>346000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>304700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>291600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>301100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>255700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>208900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>206700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>173100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>145300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>128100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>116000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>105300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>128100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>105100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>76300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>76800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>61000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>68300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>55600</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3525,53 +3621,56 @@
       <c r="AD44" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>45800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>8200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3581,18 +3680,18 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>35000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="W45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X45" s="3">
         <v>36700</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3611,74 +3710,77 @@
       <c r="AD45" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="3">
         <v>1375700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1589400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1270600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1441400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1778500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2111700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2023900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1695200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1733400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1961000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1121000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1143200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>749900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>645300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>577000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>876200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>981000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1199400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1223500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>472500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>8</v>
       </c>
@@ -3697,74 +3799,77 @@
       <c r="AD46" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>257700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>240300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>240400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>236400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>36100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>49200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>53000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>64700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>68700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>22700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>32600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>14300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>10300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3783,74 +3888,77 @@
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>301900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>266800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>298200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>298700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>292600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>297700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>285300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>257000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>268300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>220100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>214900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>186900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>183200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>166300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>156300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>133200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>37400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>33800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3869,74 +3977,77 @@
       <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>1528200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1547800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1635900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1721100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1742600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1359700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1360800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1244800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1266800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1279300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1334400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1348900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1371700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1363000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1382500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>373300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>305400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>103300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>91900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>83900</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,56 +4244,59 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
         <v>22400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4189,8 +4309,8 @@
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,74 +4422,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3498000</v>
+      </c>
+      <c r="E54" s="3">
         <v>3486000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3675900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3430400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3715900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3870900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3826500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3755900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3304300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3336300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3590900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2706100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2735700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2336900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2227900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2160800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1438400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1438000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1351400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1367100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>600500</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,74 +4579,75 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="3">
         <v>640600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>740800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>664500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>707700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>648600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>806400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>638300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>614200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>556200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>666100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>459000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>450100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>381900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>447600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>334800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>237900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>199600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>102400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>187100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>80600</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4535,65 +4666,68 @@
       <c r="AD57" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>42500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>36400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>36700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>33600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>32500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>20000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>14900</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4603,8 +4737,8 @@
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4621,74 +4755,77 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3">
         <v>103300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>105000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>182400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>173300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>182600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>67300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>55300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>86500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>64300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>91800</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>75400</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4707,74 +4844,77 @@
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="3">
         <v>786300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>882900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>883200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>917700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>865600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>907300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>755100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>712700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>638700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>778700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>542500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>528500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>465200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>468000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>353800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>274700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>214500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>194200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>187100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>156000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>8</v>
       </c>
@@ -4793,65 +4933,68 @@
       <c r="AD60" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>1100800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1070900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>721200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>722100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>717900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>696700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>753800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>795100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>791500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>783100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>599300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>589700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>274300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>100800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>82600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>78100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>80200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4879,74 +5022,77 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
         <v>795100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>816500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>924600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>959700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1238800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1951900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2350500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2643200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2992800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3687700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1116400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>729800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>330500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>321200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>316900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>46000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>56700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>28800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>47300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12000</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,74 +5378,77 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="3">
         <v>2837400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2927700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2691000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2762300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3737900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4045100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4311300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4596700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5418100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2421900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2004400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1222600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1060300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>815400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>399100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>351400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>223000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>234400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>168000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,74 +5856,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1023300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-916800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-866100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-655700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-765600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1543800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1698400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2056500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2190600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2762000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-611100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-145100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>240600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>306900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>460400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>204300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>244100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>367600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>363900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-348500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,74 +6212,77 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>460600</v>
+      </c>
+      <c r="E76" s="3">
         <v>648600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>748200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>739400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>953600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>870700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-289200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1007100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1260500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1827200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>284200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>731300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1114300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1167600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1345400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1039300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1086600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1128400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1132700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>432500</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-171900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-171300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-274200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>70500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>734300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>101400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>767200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>86600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>511200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2267100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-544300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-439600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-82100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-116900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-95300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-95400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-77700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-77300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-17700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-50700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-54800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-28200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-19900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-9300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-17400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,85 +6608,86 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>87400</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
+        <v>-245300</v>
+      </c>
+      <c r="F83" s="3">
         <v>86000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84800</v>
       </c>
-      <c r="G83" s="3">
-        <v>80600</v>
-      </c>
       <c r="H83" s="3">
-        <v>81500</v>
+        <v>162100</v>
       </c>
       <c r="I83" s="3">
+        <v>-169700</v>
+      </c>
+      <c r="J83" s="3">
         <v>69700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>62700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>54000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>60100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>54000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>51800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>50100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>35100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>4900</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,85 +7140,88 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-155700</v>
+      <c r="D89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E89" s="3">
+        <v>380900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-121300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-60200</v>
-      </c>
       <c r="H89" s="3">
-        <v>-336700</v>
+        <v>-396900</v>
       </c>
       <c r="I89" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="J89" s="3">
         <v>127500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-69500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-58200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-282000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-32400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-35900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-27400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-75700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>32300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-42600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-23300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-82700</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
+      <c r="AB89" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7071,58 +7292,58 @@
         <v>-87300</v>
       </c>
       <c r="K91" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,85 +7529,88 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-54800</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
+        <v>289500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-36800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>46200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-278800</v>
-      </c>
       <c r="H94" s="3">
-        <v>-74900</v>
+        <v>-353700</v>
       </c>
       <c r="I94" s="3">
+        <v>255800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-67400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-133400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-38300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-38900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-284100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-108800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-173300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="AB94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,85 +8007,88 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-30300</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
+        <v>-287300</v>
+      </c>
+      <c r="F100" s="3">
         <v>303700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-9200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-23100</v>
-      </c>
       <c r="H100" s="3">
-        <v>-14500</v>
+        <v>-37500</v>
       </c>
       <c r="I100" s="3">
+        <v>-419600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-43500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>458700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>645400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>364600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>236000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-27500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>24200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2700</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>777300</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>82300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
+      <c r="AB100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
@@ -7850,85 +8096,88 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-7500</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
-        <v>-300</v>
-      </c>
       <c r="H101" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3800</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>7600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-16700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
+      <c r="AB101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC101" s="3">
         <v>0</v>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-248300</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
+        <v>380600</v>
+      </c>
+      <c r="F102" s="3">
         <v>246800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-88200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-362400</v>
-      </c>
       <c r="H102" s="3">
-        <v>-425200</v>
+        <v>-787600</v>
       </c>
       <c r="I102" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="J102" s="3">
         <v>13400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>301000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-198800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-325800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>816700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>380100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>99600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-360500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-115800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-250100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>706500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-34400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
+      <c r="AB102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FTCH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>FTCH</t>
   </si>
@@ -1271,7 +1271,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14800</v>
+        <v>36400</v>
       </c>
       <c r="E14" s="3">
         <v>6600</v>
@@ -1359,8 +1359,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>90200</v>
       </c>
       <c r="E15" s="3">
         <v>87400</v>
@@ -1478,8 +1478,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>800400</v>
       </c>
       <c r="E17" s="3">
         <v>734500</v>
@@ -1567,8 +1567,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-228300</v>
       </c>
       <c r="E18" s="3">
         <v>-178100</v>
@@ -1689,8 +1689,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-72600</v>
       </c>
       <c r="E20" s="3">
         <v>-20600</v>
@@ -1778,11 +1778,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-210700</v>
       </c>
       <c r="E21" s="3">
-        <v>-444100</v>
+        <v>-111300</v>
       </c>
       <c r="F21" s="3">
         <v>-90200</v>
@@ -1791,10 +1791,10 @@
         <v>-190000</v>
       </c>
       <c r="H21" s="3">
-        <v>222400</v>
+        <v>140900</v>
       </c>
       <c r="I21" s="3">
-        <v>562100</v>
+        <v>813300</v>
       </c>
       <c r="J21" s="3">
         <v>168300</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-281300</v>
       </c>
       <c r="E26" s="3">
         <v>-174300</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-271900</v>
       </c>
       <c r="E27" s="3">
         <v>-171900</v>
@@ -2757,8 +2757,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>72600</v>
       </c>
       <c r="E32" s="3">
         <v>20600</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-271900</v>
       </c>
       <c r="E33" s="3">
         <v>-171900</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-271900</v>
       </c>
       <c r="E35" s="3">
         <v>-171900</v>
@@ -3273,8 +3273,8 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>453800</v>
       </c>
       <c r="E41" s="3">
         <v>485900</v>
@@ -3451,8 +3451,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>501200</v>
       </c>
       <c r="E43" s="3">
         <v>515600</v>
@@ -3540,8 +3540,8 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>436400</v>
       </c>
       <c r="E44" s="3">
         <v>350400</v>
@@ -3629,8 +3629,8 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>36900</v>
       </c>
       <c r="E45" s="3">
         <v>23800</v>
@@ -3718,8 +3718,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>1428400</v>
       </c>
       <c r="E46" s="3">
         <v>1375700</v>
@@ -3807,8 +3807,8 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>257900</v>
       </c>
       <c r="E47" s="3">
         <v>257700</v>
@@ -3896,8 +3896,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>287700</v>
       </c>
       <c r="E48" s="3">
         <v>301900</v>
@@ -3985,8 +3985,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>1503900</v>
       </c>
       <c r="E49" s="3">
         <v>1528200</v>
@@ -4252,8 +4252,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>20100</v>
       </c>
       <c r="E52" s="3">
         <v>22400</v>
@@ -4585,8 +4585,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>829700</v>
       </c>
       <c r="E57" s="3">
         <v>640600</v>
@@ -4674,8 +4674,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>41600</v>
       </c>
       <c r="E58" s="3">
         <v>42500</v>
@@ -4763,8 +4763,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>98000</v>
       </c>
       <c r="E59" s="3">
         <v>103300</v>
@@ -4852,8 +4852,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>969300</v>
       </c>
       <c r="E60" s="3">
         <v>786300</v>
@@ -4942,7 +4942,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1111500</v>
       </c>
       <c r="E61" s="3">
         <v>1100800</v>
@@ -5030,8 +5030,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>811000</v>
       </c>
       <c r="E62" s="3">
         <v>795100</v>
@@ -5386,8 +5386,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>3037400</v>
       </c>
       <c r="E66" s="3">
         <v>2837400</v>
@@ -5864,8 +5864,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>-1218700</v>
       </c>
       <c r="E72" s="3">
         <v>-1023300</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-271900</v>
       </c>
       <c r="E81" s="3">
         <v>-171900</v>
@@ -6614,11 +6614,11 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>90200</v>
       </c>
       <c r="E83" s="3">
-        <v>-245300</v>
+        <v>87400</v>
       </c>
       <c r="F83" s="3">
         <v>86000</v>
@@ -6627,10 +6627,10 @@
         <v>84800</v>
       </c>
       <c r="H83" s="3">
-        <v>162100</v>
+        <v>80600</v>
       </c>
       <c r="I83" s="3">
-        <v>-169700</v>
+        <v>81500</v>
       </c>
       <c r="J83" s="3">
         <v>69700</v>
@@ -7148,11 +7148,11 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>8</v>
+      <c r="D89" s="3">
+        <v>47900</v>
       </c>
       <c r="E89" s="3">
-        <v>380900</v>
+        <v>-155700</v>
       </c>
       <c r="F89" s="3">
         <v>-18400</v>
@@ -7161,10 +7161,10 @@
         <v>-121300</v>
       </c>
       <c r="H89" s="3">
-        <v>-396900</v>
+        <v>-60200</v>
       </c>
       <c r="I89" s="3">
-        <v>-54600</v>
+        <v>-336700</v>
       </c>
       <c r="J89" s="3">
         <v>127500</v>
@@ -7271,25 +7271,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-47000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-40100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-44800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-87300</v>
       </c>
       <c r="K91" s="3">
         <v>-87300</v>
@@ -7537,11 +7537,11 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-54600</v>
       </c>
       <c r="E94" s="3">
-        <v>289500</v>
+        <v>-54800</v>
       </c>
       <c r="F94" s="3">
         <v>-36800</v>
@@ -7550,10 +7550,10 @@
         <v>46200</v>
       </c>
       <c r="H94" s="3">
-        <v>-353700</v>
+        <v>-278800</v>
       </c>
       <c r="I94" s="3">
-        <v>255800</v>
+        <v>-74900</v>
       </c>
       <c r="J94" s="3">
         <v>-67400</v>
@@ -8015,11 +8015,11 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-39600</v>
       </c>
       <c r="E100" s="3">
-        <v>-287300</v>
+        <v>-30300</v>
       </c>
       <c r="F100" s="3">
         <v>303700</v>
@@ -8028,10 +8028,10 @@
         <v>-9200</v>
       </c>
       <c r="H100" s="3">
-        <v>-37500</v>
+        <v>-23100</v>
       </c>
       <c r="I100" s="3">
-        <v>-419600</v>
+        <v>-14500</v>
       </c>
       <c r="J100" s="3">
         <v>-43500</v>
@@ -8104,11 +8104,11 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>14300</v>
       </c>
       <c r="E101" s="3">
-        <v>-2500</v>
+        <v>-7500</v>
       </c>
       <c r="F101" s="3">
         <v>-1700</v>
@@ -8117,10 +8117,10 @@
         <v>-3900</v>
       </c>
       <c r="H101" s="3">
-        <v>600</v>
+        <v>-300</v>
       </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>900</v>
       </c>
       <c r="J101" s="3">
         <v>-3200</v>
@@ -8193,11 +8193,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-32100</v>
       </c>
       <c r="E102" s="3">
-        <v>380600</v>
+        <v>-248300</v>
       </c>
       <c r="F102" s="3">
         <v>246800</v>
@@ -8206,10 +8206,10 @@
         <v>-88200</v>
       </c>
       <c r="H102" s="3">
-        <v>-787600</v>
+        <v>-362400</v>
       </c>
       <c r="I102" s="3">
-        <v>-214900</v>
+        <v>-425200</v>
       </c>
       <c r="J102" s="3">
         <v>13400</v>
